--- a/weather.xlsx
+++ b/weather.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Information System design\MySQL Labs\Labs\WeatherScraping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A62AA1-7434-4DF0-A8ED-7FD4E1A78322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="weather1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>city</t>
   </si>
@@ -56,6 +50,12 @@
   </si>
   <si>
     <t>Münster</t>
+  </si>
+  <si>
+    <t>Kazan</t>
+  </si>
+  <si>
+    <t>Ufa</t>
   </si>
   <si>
     <t>Ясно</t>
@@ -73,11 +73,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,57 +137,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Temperature</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>weather1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Frankfurt</c:v>
                 </c:pt>
@@ -211,6 +187,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Münster</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kazan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -245,24 +224,13 @@
                 <c:pt idx="7">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B752-476C-8901-0933DD68AB2A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:barChart>
@@ -271,30 +239,22 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -303,11 +263,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -334,13 +292,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -359,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -399,9 +351,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,27 +385,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,27 +419,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,19 +594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -712,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
-        <v>45021.598059942131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45021.59805994213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -726,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
-        <v>45021.598238900457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45021.59823890046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -740,13 +651,13 @@
         <v>6.4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>45021.599190370369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45021.59919037037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -754,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>45021.599894490741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45021.59989449074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -768,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>45021.600689722232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45021.60068972223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -782,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>45021.600963414348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45021.60096341435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -796,13 +707,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>45021.60124802083</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -810,10 +721,38 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45021.60389921296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45021.85940986111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>7.8</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
-        <v>45021.603899212962</v>
+      <c r="D11" s="2">
+        <v>45021.859546875</v>
       </c>
     </row>
   </sheetData>
